--- a/rtm_flask/data/mile.xlsx
+++ b/rtm_flask/data/mile.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA923D62-DBE3-44BC-9F41-611D0CA9D980}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="consumption" sheetId="4" r:id="rId1"/>
-    <sheet name="mile" sheetId="5" r:id="rId2"/>
-    <sheet name="velocity" sheetId="7" r:id="rId3"/>
-    <sheet name="drive_mode" sheetId="8" r:id="rId4"/>
+    <sheet name="warming" sheetId="9" r:id="rId2"/>
+    <sheet name="mile" sheetId="5" r:id="rId3"/>
+    <sheet name="velocity" sheetId="7" r:id="rId4"/>
+    <sheet name="drive_mode" sheetId="8" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="104">
   <si>
     <t>0~20</t>
   </si>
@@ -290,13 +290,105 @@
   </si>
   <si>
     <t>WLTP_acc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lavida</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tiguan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Passat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度差异报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电池高温报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车载储能装置类型过压报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车载储能装置类型欠压报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOC低报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体电池过压报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体电池欠压报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOC过高报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOC跳变报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可充电储能系统不匹配报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电池单体一致性差报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝缘报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dc-dc温度报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制动系统报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC-DC状态报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驱动电机控制器温度报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高压互锁状态报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驱动电机温度报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车载储能装置类型过充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0.000"/>
@@ -325,7 +417,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,6 +427,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,7 +452,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -376,6 +474,8 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -656,10 +756,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -935,7 +1035,508 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="9"/>
+      <c r="B1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3024</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1706</v>
+      </c>
+      <c r="C3" s="2">
+        <v>55</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1156</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>54</v>
+      </c>
+      <c r="D6" s="2">
+        <v>610</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="2">
+        <v>73</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2052</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2442</v>
+      </c>
+      <c r="E10">
+        <v>15</v>
+      </c>
+      <c r="F10">
+        <v>33</v>
+      </c>
+      <c r="G10">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>8107</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3759</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="2">
+        <v>17085</v>
+      </c>
+      <c r="C13" s="2">
+        <v>7649</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3622</v>
+      </c>
+      <c r="E13">
+        <v>190</v>
+      </c>
+      <c r="F13">
+        <v>8</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2">
+        <v>755</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="2">
+        <v>716</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3647</v>
+      </c>
+      <c r="D15" s="2">
+        <v>6734</v>
+      </c>
+      <c r="E15">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <v>713</v>
+      </c>
+      <c r="G15">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="2">
+        <v>26</v>
+      </c>
+      <c r="C16" s="2">
+        <v>30</v>
+      </c>
+      <c r="D16" s="2">
+        <v>382</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="2">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2">
+        <v>84</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1526</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="2">
+        <v>734</v>
+      </c>
+      <c r="C18" s="2">
+        <v>8291</v>
+      </c>
+      <c r="D18" s="2">
+        <v>3718</v>
+      </c>
+      <c r="E18">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <v>285</v>
+      </c>
+      <c r="G18">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21">
+        <v>19878</v>
+      </c>
+      <c r="C21">
+        <v>32766</v>
+      </c>
+      <c r="D21">
+        <v>22219</v>
+      </c>
+      <c r="E21">
+        <v>228</v>
+      </c>
+      <c r="F21">
+        <v>1005</v>
+      </c>
+      <c r="G21">
+        <v>297</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3023,8 +3624,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3905,8 +4506,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/rtm_flask/data/mile.xlsx
+++ b/rtm_flask/data/mile.xlsx
@@ -4,14 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="consumption" sheetId="4" r:id="rId1"/>
-    <sheet name="warming" sheetId="9" r:id="rId2"/>
-    <sheet name="mile" sheetId="5" r:id="rId3"/>
-    <sheet name="velocity" sheetId="7" r:id="rId4"/>
-    <sheet name="drive_mode" sheetId="8" r:id="rId5"/>
+    <sheet name="drive_mode" sheetId="8" r:id="rId1"/>
+    <sheet name="consumption" sheetId="4" r:id="rId2"/>
+    <sheet name="warming" sheetId="9" r:id="rId3"/>
+    <sheet name="mile" sheetId="5" r:id="rId4"/>
+    <sheet name="velocity" sheetId="7" r:id="rId5"/>
+    <sheet name="v_usertype" sheetId="12" r:id="rId6"/>
+    <sheet name="mile_usertype" sheetId="10" r:id="rId7"/>
+    <sheet name="consumption_usertype" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="148">
   <si>
     <t>0~20</t>
   </si>
@@ -382,6 +385,144 @@
   </si>
   <si>
     <t>total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fleet——mileage per day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mile_perCharging</t>
+  </si>
+  <si>
+    <t>mile_convert</t>
+  </si>
+  <si>
+    <t>6.0~6.5</t>
+  </si>
+  <si>
+    <t>6.5~7.0</t>
+  </si>
+  <si>
+    <t>7.0~7.5</t>
+  </si>
+  <si>
+    <t>7.5~8.0</t>
+  </si>
+  <si>
+    <t>8.0~8.5</t>
+  </si>
+  <si>
+    <t>8.5~9.0</t>
+  </si>
+  <si>
+    <t>20.5~21.0</t>
+  </si>
+  <si>
+    <t>21.0~21.5</t>
+  </si>
+  <si>
+    <t>21.5~22.0</t>
+  </si>
+  <si>
+    <t>22.0~22.5</t>
+  </si>
+  <si>
+    <t>22.5~23.0</t>
+  </si>
+  <si>
+    <t>23.0~23.5</t>
+  </si>
+  <si>
+    <t>23.5~24.0</t>
+  </si>
+  <si>
+    <t>24.0~24.5</t>
+  </si>
+  <si>
+    <t>24.5~25.0</t>
+  </si>
+  <si>
+    <t>25.0~25.5</t>
+  </si>
+  <si>
+    <t>25.5~26.0</t>
+  </si>
+  <si>
+    <t>26.0~26.5</t>
+  </si>
+  <si>
+    <t>26.5~27.0</t>
+  </si>
+  <si>
+    <t>27.0~27.5</t>
+  </si>
+  <si>
+    <t>27.5~28.0</t>
+  </si>
+  <si>
+    <t>28.0~28.5</t>
+  </si>
+  <si>
+    <t>28.5~29.0</t>
+  </si>
+  <si>
+    <t>29.0~29.5</t>
+  </si>
+  <si>
+    <t>0~10</t>
+  </si>
+  <si>
+    <t>10~20</t>
+  </si>
+  <si>
+    <t>20~30</t>
+  </si>
+  <si>
+    <t>30~40</t>
+  </si>
+  <si>
+    <t>40~50</t>
+  </si>
+  <si>
+    <t>50~60</t>
+  </si>
+  <si>
+    <t>60~70</t>
+  </si>
+  <si>
+    <t>70~80</t>
+  </si>
+  <si>
+    <t>80~90</t>
+  </si>
+  <si>
+    <t>90~100</t>
+  </si>
+  <si>
+    <t>100~110</t>
+  </si>
+  <si>
+    <t>110~120</t>
+  </si>
+  <si>
+    <t>mileage per day_private</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fleet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>private</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mileage per day_taxi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taxi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -757,274 +898,338 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="B2">
-        <v>6.3433328928241047E-3</v>
+        <v>0.85861038557622049</v>
       </c>
       <c r="C2">
-        <v>5.3238686779059448E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6.0148665380391746E-3</v>
+      </c>
+      <c r="D2">
+        <v>0.13537474788574028</v>
+      </c>
+      <c r="E2">
+        <v>0.88078372431410201</v>
+      </c>
+      <c r="F2">
+        <v>4.9852560742345451E-3</v>
+      </c>
+      <c r="G2">
+        <v>0.11423101961166339</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="B3">
-        <v>1.3083124091449716E-2</v>
+        <v>0.77241658029320059</v>
       </c>
       <c r="C3">
-        <v>7.1700489452442969E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.6942123379697758E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.20064129632710165</v>
+      </c>
+      <c r="E3">
+        <v>0.81421044564155509</v>
+      </c>
+      <c r="F3">
+        <v>2.2255299738314166E-2</v>
+      </c>
+      <c r="G3">
+        <v>0.1635342546201308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="B4">
-        <v>1.5990485000660765E-2</v>
+        <v>0.65809867729116689</v>
       </c>
       <c r="C4">
-        <v>1.3395540544408507E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.6433815338863189E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.30546750736996992</v>
+      </c>
+      <c r="E4">
+        <v>0.72871938098072431</v>
+      </c>
+      <c r="F4">
+        <v>2.5015338125543702E-2</v>
+      </c>
+      <c r="G4">
+        <v>0.24626528089373198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="B5">
-        <v>2.7223470331703449E-2</v>
+        <v>0.61941449041994634</v>
       </c>
       <c r="C5">
-        <v>2.1681884535020179E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.9094541467885194E-2</v>
+      </c>
+      <c r="D5">
+        <v>0.3514909681121684</v>
+      </c>
+      <c r="E5">
+        <v>0.6839924268785943</v>
+      </c>
+      <c r="F5">
+        <v>2.5742626122030526E-2</v>
+      </c>
+      <c r="G5">
+        <v>0.29026494699937516</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="B6">
-        <v>3.8192150125545131E-2</v>
+        <v>0.56559195470673451</v>
       </c>
       <c r="C6">
-        <v>3.4247359532873459E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.959428282163794E-2</v>
+      </c>
+      <c r="D6">
+        <v>0.39481376247162758</v>
+      </c>
+      <c r="E6">
+        <v>0.62130568766378724</v>
+      </c>
+      <c r="F6">
+        <v>3.6773269921382121E-2</v>
+      </c>
+      <c r="G6">
+        <v>0.34192104241483062</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="B7">
-        <v>5.5636315580811418E-2</v>
+        <v>0.50796705520766605</v>
       </c>
       <c r="C7">
-        <v>5.0791424564215586E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5.608965937448071E-2</v>
+      </c>
+      <c r="D7">
+        <v>0.43594328541785321</v>
+      </c>
+      <c r="E7">
+        <v>0.55369326756089476</v>
+      </c>
+      <c r="F7">
+        <v>5.3727901994448594E-2</v>
+      </c>
+      <c r="G7">
+        <v>0.39257883044465663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="B8">
-        <v>6.911589797806264E-2</v>
+        <v>0.41491897135829442</v>
       </c>
       <c r="C8">
-        <v>6.86521452900936E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>7.8842033297558262E-2</v>
+      </c>
+      <c r="D8">
+        <v>0.50623899534414729</v>
+      </c>
+      <c r="E8">
+        <v>0.46427740902416498</v>
+      </c>
+      <c r="F8">
+        <v>7.4631080281980233E-2</v>
+      </c>
+      <c r="G8">
+        <v>0.46109151069385479</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="B9">
-        <v>8.5106382978723402E-2</v>
+        <v>0.29462966045066236</v>
       </c>
       <c r="C9">
-        <v>7.9528866244955199E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>8.839858605982169E-2</v>
+      </c>
+      <c r="D9">
+        <v>0.61697175348951594</v>
+      </c>
+      <c r="E9">
+        <v>0.33761406179471976</v>
+      </c>
+      <c r="F9">
+        <v>7.7880641135705878E-2</v>
+      </c>
+      <c r="G9">
+        <v>0.58450529706957433</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="B10">
-        <v>8.8410202193735965E-2</v>
+        <v>0.23473045509304116</v>
       </c>
       <c r="C10">
-        <v>8.9475341328677335E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>7.8603295768109968E-2</v>
+      </c>
+      <c r="D10">
+        <v>0.68666624913884888</v>
+      </c>
+      <c r="E10">
+        <v>0.26077234703004154</v>
+      </c>
+      <c r="F10">
+        <v>6.2851844057452519E-2</v>
+      </c>
+      <c r="G10">
+        <v>0.67637580891250593</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="B11">
-        <v>8.9335271573939459E-2</v>
+        <v>0.17763207031695305</v>
       </c>
       <c r="C11">
-        <v>9.2537996965967317E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6.8103824427750981E-2</v>
+      </c>
+      <c r="D11">
+        <v>0.75426410525529597</v>
+      </c>
+      <c r="E11">
+        <v>0.18604215861314288</v>
+      </c>
+      <c r="F11">
+        <v>4.6650924379427521E-2</v>
+      </c>
+      <c r="G11">
+        <v>0.76730691700742959</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="B12">
-        <v>8.7617285582132942E-2</v>
+        <v>0.13206465611172696</v>
       </c>
       <c r="C12">
-        <v>8.8015570884735383E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5.7583165155434275E-2</v>
+      </c>
+      <c r="D12">
+        <v>0.81035217873283871</v>
+      </c>
+      <c r="E12">
+        <v>0.13282633225389195</v>
+      </c>
+      <c r="F12">
+        <v>3.7685653214931149E-2</v>
+      </c>
+      <c r="G12">
+        <v>0.82948801453117693</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="B13">
-        <v>7.5723536408087752E-2</v>
+        <v>8.8603844115585598E-2</v>
       </c>
       <c r="C13">
-        <v>8.2147866159086355E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.9164847939187071E-2</v>
+      </c>
+      <c r="D13">
+        <v>0.8722313079452273</v>
+      </c>
+      <c r="E13">
+        <v>8.7638398539760312E-2</v>
+      </c>
+      <c r="F13">
+        <v>2.1795518409107286E-2</v>
+      </c>
+      <c r="G13">
+        <v>0.89056608305113238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="B14">
-        <v>6.1318884630633015E-2</v>
+        <v>7.0667646675722451E-2</v>
       </c>
       <c r="C14">
-        <v>6.9725505910639154E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15">
-        <v>5.8940134795823967E-2</v>
-      </c>
-      <c r="C15">
-        <v>6.022268655007585E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16">
-        <v>4.916082991938682E-2</v>
-      </c>
-      <c r="C16">
-        <v>5.0147408191888253E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17">
-        <v>3.8720761199947142E-2</v>
-      </c>
-      <c r="C17">
-        <v>3.984314623465094E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18">
-        <v>3.3434650455927049E-2</v>
-      </c>
-      <c r="C18">
-        <v>3.1370753069811373E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19">
-        <v>2.8677150786308975E-2</v>
-      </c>
-      <c r="C19">
-        <v>2.38572287259925E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20">
-        <v>2.4316109422492401E-2</v>
-      </c>
-      <c r="C20">
-        <v>1.6858917480035492E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21">
-        <v>1.8897845909871813E-2</v>
-      </c>
-      <c r="C21">
-        <v>1.3896442167329765E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22">
-        <v>1.4140346240253733E-2</v>
-      </c>
-      <c r="C22">
-        <v>1.0475999656524602E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23">
-        <v>1.2158054711246201E-2</v>
-      </c>
-      <c r="C23">
-        <v>7.2559177948879408E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24">
-        <v>8.4577771904321402E-3</v>
-      </c>
-      <c r="C24">
-        <v>5.6959670263617371E-3</v>
+        <v>4.7582385887869595E-2</v>
+      </c>
+      <c r="D14">
+        <v>0.88174996743640799</v>
+      </c>
+      <c r="E14">
+        <v>6.4581272667326078E-2</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2.8437190900098913E-2</v>
+      </c>
+      <c r="G14">
+        <v>0.90698153643257495</v>
       </c>
     </row>
   </sheetData>
@@ -1036,10 +1241,289 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>6.3433328928241047E-3</v>
+      </c>
+      <c r="C2">
+        <v>5.3238686779059448E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>1.3083124091449716E-2</v>
+      </c>
+      <c r="C3">
+        <v>7.1700489452442969E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>1.5990485000660765E-2</v>
+      </c>
+      <c r="C4">
+        <v>1.3395540544408507E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>2.7223470331703449E-2</v>
+      </c>
+      <c r="C5">
+        <v>2.1681884535020179E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>3.8192150125545131E-2</v>
+      </c>
+      <c r="C6">
+        <v>3.4247359532873459E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <v>5.5636315580811418E-2</v>
+      </c>
+      <c r="C7">
+        <v>5.0791424564215586E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>6.911589797806264E-2</v>
+      </c>
+      <c r="C8">
+        <v>6.86521452900936E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9">
+        <v>8.5106382978723402E-2</v>
+      </c>
+      <c r="C9">
+        <v>7.9528866244955199E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10">
+        <v>8.8410202193735965E-2</v>
+      </c>
+      <c r="C10">
+        <v>8.9475341328677335E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11">
+        <v>8.9335271573939459E-2</v>
+      </c>
+      <c r="C11">
+        <v>9.2537996965967317E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <v>8.7617285582132942E-2</v>
+      </c>
+      <c r="C12">
+        <v>8.8015570884735383E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13">
+        <v>7.5723536408087752E-2</v>
+      </c>
+      <c r="C13">
+        <v>8.2147866159086355E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14">
+        <v>6.1318884630633015E-2</v>
+      </c>
+      <c r="C14">
+        <v>6.9725505910639154E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15">
+        <v>5.8940134795823967E-2</v>
+      </c>
+      <c r="C15">
+        <v>6.022268655007585E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16">
+        <v>4.916082991938682E-2</v>
+      </c>
+      <c r="C16">
+        <v>5.0147408191888253E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17">
+        <v>3.8720761199947142E-2</v>
+      </c>
+      <c r="C17">
+        <v>3.984314623465094E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18">
+        <v>3.3434650455927049E-2</v>
+      </c>
+      <c r="C18">
+        <v>3.1370753069811373E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19">
+        <v>2.8677150786308975E-2</v>
+      </c>
+      <c r="C19">
+        <v>2.38572287259925E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20">
+        <v>2.4316109422492401E-2</v>
+      </c>
+      <c r="C20">
+        <v>1.6858917480035492E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21">
+        <v>1.8897845909871813E-2</v>
+      </c>
+      <c r="C21">
+        <v>1.3896442167329765E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22">
+        <v>1.4140346240253733E-2</v>
+      </c>
+      <c r="C22">
+        <v>1.0475999656524602E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23">
+        <v>1.2158054711246201E-2</v>
+      </c>
+      <c r="C23">
+        <v>7.2559177948879408E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24">
+        <v>8.4577771904321402E-3</v>
+      </c>
+      <c r="C24">
+        <v>5.6959670263617371E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1535,12 +2019,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q50" sqref="A26:Q50"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3624,7 +4108,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S14"/>
   <sheetViews>
@@ -4506,340 +4990,1020 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2">
+        <v>584265</v>
+      </c>
+      <c r="C2">
+        <v>313602</v>
+      </c>
+      <c r="D2">
+        <v>87995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3">
+        <v>525230</v>
+      </c>
+      <c r="C3">
+        <v>274842</v>
+      </c>
+      <c r="D3">
+        <v>102400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4">
+        <v>527448</v>
+      </c>
+      <c r="C4">
+        <v>268123</v>
+      </c>
+      <c r="D4">
+        <v>119501</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5">
+        <v>505299</v>
+      </c>
+      <c r="C5">
+        <v>259958</v>
+      </c>
+      <c r="D5">
+        <v>109208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6">
+        <v>423739</v>
+      </c>
+      <c r="C6">
+        <v>233521</v>
+      </c>
+      <c r="D6">
+        <v>80810</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7">
+        <v>297963</v>
+      </c>
+      <c r="C7">
+        <v>184343</v>
+      </c>
+      <c r="D7">
+        <v>51858</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8">
+        <v>179930</v>
+      </c>
+      <c r="C8">
+        <v>123657</v>
+      </c>
+      <c r="D8">
+        <v>28069</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9">
+        <v>99845</v>
+      </c>
+      <c r="C9">
+        <v>75331</v>
+      </c>
+      <c r="D9">
+        <v>13005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10">
+        <v>34893</v>
+      </c>
+      <c r="C10">
+        <v>36843</v>
+      </c>
+      <c r="D10">
+        <v>5540</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11">
+        <v>14566</v>
+      </c>
+      <c r="C11">
+        <v>21988</v>
+      </c>
+      <c r="D11">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12">
+        <v>6372</v>
+      </c>
+      <c r="C12">
+        <v>11695</v>
+      </c>
+      <c r="D12">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13">
+        <v>2929</v>
+      </c>
+      <c r="C13">
+        <v>5841</v>
+      </c>
+      <c r="D13">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14">
+        <v>916</v>
+      </c>
+      <c r="C14">
+        <v>1530</v>
+      </c>
+      <c r="D14">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:J25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3905</v>
+      </c>
+      <c r="C2">
+        <v>1915</v>
+      </c>
+      <c r="D2">
+        <v>29</v>
+      </c>
+      <c r="E2">
+        <v>16708</v>
+      </c>
+      <c r="F2">
+        <v>1720</v>
+      </c>
+      <c r="G2">
+        <v>8</v>
+      </c>
+      <c r="H2">
+        <v>66</v>
+      </c>
+      <c r="I2">
+        <v>93</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2009</v>
+      </c>
+      <c r="C3">
+        <v>2250</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>11859</v>
+      </c>
+      <c r="F3">
+        <v>1776</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>35</v>
+      </c>
+      <c r="I3">
+        <v>167</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1501</v>
+      </c>
+      <c r="C4">
+        <v>2547</v>
+      </c>
+      <c r="D4">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>8191</v>
+      </c>
+      <c r="F4">
+        <v>1907</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>31</v>
+      </c>
+      <c r="I4">
+        <v>286</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1106</v>
+      </c>
+      <c r="C5">
+        <v>3142</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>5311</v>
+      </c>
+      <c r="F5">
+        <v>1954</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>35</v>
+      </c>
+      <c r="I5">
+        <v>441</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>917</v>
+      </c>
+      <c r="C6">
+        <v>3910</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>3236</v>
+      </c>
+      <c r="F6">
+        <v>2233</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>30</v>
+      </c>
+      <c r="I6">
+        <v>616</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>757</v>
+      </c>
+      <c r="C7">
+        <v>4244</v>
+      </c>
+      <c r="D7">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>2227</v>
+      </c>
+      <c r="F7">
+        <v>2359</v>
+      </c>
+      <c r="G7">
+        <v>40</v>
+      </c>
+      <c r="H7">
+        <v>58</v>
+      </c>
+      <c r="I7">
+        <v>737</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>768</v>
+      </c>
+      <c r="C8">
+        <v>4263</v>
+      </c>
+      <c r="D8">
+        <v>44</v>
+      </c>
+      <c r="E8">
+        <v>1409</v>
+      </c>
+      <c r="F8">
+        <v>2225</v>
+      </c>
+      <c r="G8">
+        <v>108</v>
+      </c>
+      <c r="H8">
+        <v>67</v>
+      </c>
+      <c r="I8">
+        <v>737</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>900</v>
+      </c>
+      <c r="C9">
+        <v>4173</v>
+      </c>
+      <c r="D9">
+        <v>115</v>
+      </c>
+      <c r="E9">
+        <v>928</v>
+      </c>
+      <c r="F9">
+        <v>2109</v>
+      </c>
+      <c r="G9">
+        <v>231</v>
+      </c>
+      <c r="H9">
+        <v>81</v>
+      </c>
+      <c r="I9">
+        <v>785</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1027</v>
+      </c>
+      <c r="C10">
+        <v>3658</v>
+      </c>
+      <c r="D10">
+        <v>351</v>
+      </c>
+      <c r="E10">
+        <v>715</v>
+      </c>
+      <c r="F10">
+        <v>1978</v>
+      </c>
+      <c r="G10">
+        <v>522</v>
+      </c>
+      <c r="H10">
+        <v>144</v>
+      </c>
+      <c r="I10">
+        <v>707</v>
+      </c>
+      <c r="J10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1374</v>
+      </c>
+      <c r="C11">
+        <v>2907</v>
+      </c>
+      <c r="D11">
+        <v>1144</v>
+      </c>
+      <c r="E11">
+        <v>544</v>
+      </c>
+      <c r="F11">
+        <v>1599</v>
+      </c>
+      <c r="G11">
+        <v>1078</v>
+      </c>
+      <c r="H11">
+        <v>188</v>
+      </c>
+      <c r="I11">
+        <v>636</v>
+      </c>
+      <c r="J11">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1571</v>
+      </c>
+      <c r="C12">
+        <v>1906</v>
+      </c>
+      <c r="D12">
+        <v>3041</v>
+      </c>
+      <c r="E12">
+        <v>431</v>
+      </c>
+      <c r="F12">
+        <v>1190</v>
+      </c>
+      <c r="G12">
+        <v>2130</v>
+      </c>
+      <c r="H12">
+        <v>247</v>
+      </c>
+      <c r="I12">
+        <v>445</v>
+      </c>
+      <c r="J12">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>1687</v>
+      </c>
+      <c r="C13">
+        <v>1138</v>
+      </c>
+      <c r="D13">
+        <v>5538</v>
+      </c>
+      <c r="E13">
+        <v>356</v>
+      </c>
+      <c r="F13">
+        <v>670</v>
+      </c>
+      <c r="G13">
+        <v>3162</v>
+      </c>
+      <c r="H13">
+        <v>264</v>
+      </c>
+      <c r="I13">
+        <v>252</v>
+      </c>
+      <c r="J13">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1722</v>
+      </c>
+      <c r="C14">
+        <v>561</v>
+      </c>
+      <c r="D14">
+        <v>7181</v>
+      </c>
+      <c r="E14">
+        <v>304</v>
+      </c>
+      <c r="F14">
+        <v>360</v>
+      </c>
+      <c r="G14">
+        <v>3885</v>
+      </c>
+      <c r="H14">
+        <v>271</v>
+      </c>
+      <c r="I14">
+        <v>92</v>
+      </c>
+      <c r="J14">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>1643</v>
+      </c>
+      <c r="C15">
+        <v>186</v>
+      </c>
+      <c r="D15">
+        <v>7238</v>
+      </c>
+      <c r="E15">
+        <v>220</v>
+      </c>
+      <c r="F15">
+        <v>160</v>
+      </c>
+      <c r="G15">
+        <v>3648</v>
+      </c>
+      <c r="H15">
+        <v>294</v>
+      </c>
+      <c r="I15">
+        <v>24</v>
+      </c>
+      <c r="J15">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>1447</v>
+      </c>
+      <c r="C16">
+        <v>61</v>
+      </c>
+      <c r="D16">
+        <v>5533</v>
+      </c>
+      <c r="E16">
+        <v>188</v>
+      </c>
+      <c r="F16">
+        <v>71</v>
+      </c>
+      <c r="G16">
+        <v>2713</v>
+      </c>
+      <c r="H16">
+        <v>240</v>
+      </c>
+      <c r="I16">
+        <v>8</v>
+      </c>
+      <c r="J16">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>1185</v>
+      </c>
+      <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>3276</v>
+      </c>
+      <c r="E17">
+        <v>123</v>
+      </c>
+      <c r="F17">
+        <v>19</v>
+      </c>
+      <c r="G17">
+        <v>1930</v>
+      </c>
+      <c r="H17">
+        <v>214</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>868</v>
+      </c>
+      <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>1625</v>
+      </c>
+      <c r="E18">
+        <v>78</v>
+      </c>
+      <c r="F18">
+        <v>21</v>
+      </c>
+      <c r="G18">
+        <v>1068</v>
+      </c>
+      <c r="H18">
+        <v>184</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>566</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>687</v>
+      </c>
+      <c r="E19">
+        <v>53</v>
+      </c>
+      <c r="F19">
+        <v>16</v>
+      </c>
+      <c r="G19">
+        <v>638</v>
+      </c>
+      <c r="H19">
+        <v>134</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>395</v>
+      </c>
+      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>314</v>
+      </c>
+      <c r="E20">
+        <v>35</v>
+      </c>
+      <c r="F20">
+        <v>11</v>
+      </c>
+      <c r="G20">
+        <v>350</v>
+      </c>
+      <c r="H20">
+        <v>105</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>268</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>142</v>
+      </c>
+      <c r="E21">
+        <v>41</v>
+      </c>
+      <c r="F21">
+        <v>16</v>
+      </c>
+      <c r="G21">
+        <v>178</v>
+      </c>
+      <c r="H21">
+        <v>120</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>188</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>110</v>
+      </c>
+      <c r="E22">
+        <v>28</v>
+      </c>
+      <c r="F22">
+        <v>12</v>
+      </c>
+      <c r="G22">
+        <v>126</v>
+      </c>
+      <c r="H22">
+        <v>99</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>103</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>60</v>
+      </c>
+      <c r="E23">
+        <v>9</v>
+      </c>
+      <c r="F23">
+        <v>7</v>
+      </c>
+      <c r="G23">
+        <v>76</v>
+      </c>
+      <c r="H23">
+        <v>74</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>80</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
         <v>55</v>
       </c>
-      <c r="B2">
-        <v>0.85861038557622049</v>
-      </c>
-      <c r="C2">
-        <v>6.0148665380391746E-3</v>
-      </c>
-      <c r="D2">
-        <v>0.13537474788574028</v>
-      </c>
-      <c r="E2">
-        <v>0.88078372431410201</v>
-      </c>
-      <c r="F2">
-        <v>4.9852560742345451E-3</v>
-      </c>
-      <c r="G2">
-        <v>0.11423101961166339</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3">
-        <v>0.77241658029320059</v>
-      </c>
-      <c r="C3">
-        <v>2.6942123379697758E-2</v>
-      </c>
-      <c r="D3">
-        <v>0.20064129632710165</v>
-      </c>
-      <c r="E3">
-        <v>0.81421044564155509</v>
-      </c>
-      <c r="F3">
-        <v>2.2255299738314166E-2</v>
-      </c>
-      <c r="G3">
-        <v>0.1635342546201308</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="E24">
+        <v>15</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24">
         <v>57</v>
       </c>
-      <c r="B4">
-        <v>0.65809867729116689</v>
-      </c>
-      <c r="C4">
-        <v>3.6433815338863189E-2</v>
-      </c>
-      <c r="D4">
-        <v>0.30546750736996992</v>
-      </c>
-      <c r="E4">
-        <v>0.72871938098072431</v>
-      </c>
-      <c r="F4">
-        <v>2.5015338125543702E-2</v>
-      </c>
-      <c r="G4">
-        <v>0.24626528089373198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5">
-        <v>0.61941449041994634</v>
-      </c>
-      <c r="C5">
-        <v>2.9094541467885194E-2</v>
-      </c>
-      <c r="D5">
-        <v>0.3514909681121684</v>
-      </c>
-      <c r="E5">
-        <v>0.6839924268785943</v>
-      </c>
-      <c r="F5">
-        <v>2.5742626122030526E-2</v>
-      </c>
-      <c r="G5">
-        <v>0.29026494699937516</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6">
-        <v>0.56559195470673451</v>
-      </c>
-      <c r="C6">
-        <v>3.959428282163794E-2</v>
-      </c>
-      <c r="D6">
-        <v>0.39481376247162758</v>
-      </c>
-      <c r="E6">
-        <v>0.62130568766378724</v>
-      </c>
-      <c r="F6">
-        <v>3.6773269921382121E-2</v>
-      </c>
-      <c r="G6">
-        <v>0.34192104241483062</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7">
-        <v>0.50796705520766605</v>
-      </c>
-      <c r="C7">
-        <v>5.608965937448071E-2</v>
-      </c>
-      <c r="D7">
-        <v>0.43594328541785321</v>
-      </c>
-      <c r="E7">
-        <v>0.55369326756089476</v>
-      </c>
-      <c r="F7">
-        <v>5.3727901994448594E-2</v>
-      </c>
-      <c r="G7">
-        <v>0.39257883044465663</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8">
-        <v>0.41491897135829442</v>
-      </c>
-      <c r="C8">
-        <v>7.8842033297558262E-2</v>
-      </c>
-      <c r="D8">
-        <v>0.50623899534414729</v>
-      </c>
-      <c r="E8">
-        <v>0.46427740902416498</v>
-      </c>
-      <c r="F8">
-        <v>7.4631080281980233E-2</v>
-      </c>
-      <c r="G8">
-        <v>0.46109151069385479</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9">
-        <v>0.29462966045066236</v>
-      </c>
-      <c r="C9">
-        <v>8.839858605982169E-2</v>
-      </c>
-      <c r="D9">
-        <v>0.61697175348951594</v>
-      </c>
-      <c r="E9">
-        <v>0.33761406179471976</v>
-      </c>
-      <c r="F9">
-        <v>7.7880641135705878E-2</v>
-      </c>
-      <c r="G9">
-        <v>0.58450529706957433</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10">
-        <v>0.23473045509304116</v>
-      </c>
-      <c r="C10">
-        <v>7.8603295768109968E-2</v>
-      </c>
-      <c r="D10">
-        <v>0.68666624913884888</v>
-      </c>
-      <c r="E10">
-        <v>0.26077234703004154</v>
-      </c>
-      <c r="F10">
-        <v>6.2851844057452519E-2</v>
-      </c>
-      <c r="G10">
-        <v>0.67637580891250593</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11">
-        <v>0.17763207031695305</v>
-      </c>
-      <c r="C11">
-        <v>6.8103824427750981E-2</v>
-      </c>
-      <c r="D11">
-        <v>0.75426410525529597</v>
-      </c>
-      <c r="E11">
-        <v>0.18604215861314288</v>
-      </c>
-      <c r="F11">
-        <v>4.6650924379427521E-2</v>
-      </c>
-      <c r="G11">
-        <v>0.76730691700742959</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12">
-        <v>0.13206465611172696</v>
-      </c>
-      <c r="C12">
-        <v>5.7583165155434275E-2</v>
-      </c>
-      <c r="D12">
-        <v>0.81035217873283871</v>
-      </c>
-      <c r="E12">
-        <v>0.13282633225389195</v>
-      </c>
-      <c r="F12">
-        <v>3.7685653214931149E-2</v>
-      </c>
-      <c r="G12">
-        <v>0.82948801453117693</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13">
-        <v>8.8603844115585598E-2</v>
-      </c>
-      <c r="C13">
-        <v>3.9164847939187071E-2</v>
-      </c>
-      <c r="D13">
-        <v>0.8722313079452273</v>
-      </c>
-      <c r="E13">
-        <v>8.7638398539760312E-2</v>
-      </c>
-      <c r="F13">
-        <v>2.1795518409107286E-2</v>
-      </c>
-      <c r="G13">
-        <v>0.89056608305113238</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14">
-        <v>7.0667646675722451E-2</v>
-      </c>
-      <c r="C14">
-        <v>4.7582385887869595E-2</v>
-      </c>
-      <c r="D14">
-        <v>0.88174996743640799</v>
-      </c>
-      <c r="E14">
-        <v>6.4581272667326078E-2</v>
-      </c>
-      <c r="F14" s="3">
-        <v>2.8437190900098913E-2</v>
-      </c>
-      <c r="G14">
-        <v>0.90698153643257495</v>
+      <c r="H24">
+        <v>57</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>46</v>
+      </c>
+      <c r="C25">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>50</v>
+      </c>
+      <c r="E25">
+        <v>7</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>51</v>
+      </c>
+      <c r="H25">
+        <v>31</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -4847,4 +6011,689 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2">
+        <v>44</v>
+      </c>
+      <c r="C2">
+        <v>43</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3">
+        <v>60</v>
+      </c>
+      <c r="C3">
+        <v>58</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4">
+        <v>57</v>
+      </c>
+      <c r="C4">
+        <v>64</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5">
+        <v>60</v>
+      </c>
+      <c r="C5">
+        <v>78</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6">
+        <v>81</v>
+      </c>
+      <c r="C6">
+        <v>88</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7">
+        <v>87</v>
+      </c>
+      <c r="C7">
+        <v>97</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>138</v>
+      </c>
+      <c r="C8">
+        <v>179</v>
+      </c>
+      <c r="D8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <v>197</v>
+      </c>
+      <c r="C9">
+        <v>226</v>
+      </c>
+      <c r="D9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>378</v>
+      </c>
+      <c r="C10">
+        <v>422</v>
+      </c>
+      <c r="D10">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11">
+        <v>706</v>
+      </c>
+      <c r="C11">
+        <v>585</v>
+      </c>
+      <c r="D11">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12">
+        <v>1194</v>
+      </c>
+      <c r="C12">
+        <v>797</v>
+      </c>
+      <c r="D12">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13">
+        <v>1794</v>
+      </c>
+      <c r="C13">
+        <v>1094</v>
+      </c>
+      <c r="D13">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14">
+        <v>2633</v>
+      </c>
+      <c r="C14">
+        <v>1381</v>
+      </c>
+      <c r="D14">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15">
+        <v>3082</v>
+      </c>
+      <c r="C15">
+        <v>1552</v>
+      </c>
+      <c r="D15">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16">
+        <v>3533</v>
+      </c>
+      <c r="C16">
+        <v>1761</v>
+      </c>
+      <c r="D16">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17">
+        <v>3642</v>
+      </c>
+      <c r="C17">
+        <v>1809</v>
+      </c>
+      <c r="D17">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18">
+        <v>3401</v>
+      </c>
+      <c r="C18">
+        <v>1790</v>
+      </c>
+      <c r="D18">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19">
+        <v>3145</v>
+      </c>
+      <c r="C19">
+        <v>1680</v>
+      </c>
+      <c r="D19">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>2646</v>
+      </c>
+      <c r="C20">
+        <v>1445</v>
+      </c>
+      <c r="D20">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21">
+        <v>2284</v>
+      </c>
+      <c r="C21">
+        <v>1265</v>
+      </c>
+      <c r="D21">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22">
+        <v>1865</v>
+      </c>
+      <c r="C22">
+        <v>1073</v>
+      </c>
+      <c r="D22">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23">
+        <v>1449</v>
+      </c>
+      <c r="C23">
+        <v>900</v>
+      </c>
+      <c r="D23">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24">
+        <v>1102</v>
+      </c>
+      <c r="C24">
+        <v>757</v>
+      </c>
+      <c r="D24">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25">
+        <v>840</v>
+      </c>
+      <c r="C25">
+        <v>592</v>
+      </c>
+      <c r="D25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26">
+        <v>575</v>
+      </c>
+      <c r="C26">
+        <v>448</v>
+      </c>
+      <c r="D26">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27">
+        <v>449</v>
+      </c>
+      <c r="C27">
+        <v>371</v>
+      </c>
+      <c r="D27">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28">
+        <v>321</v>
+      </c>
+      <c r="C28">
+        <v>318</v>
+      </c>
+      <c r="D28">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29">
+        <v>232</v>
+      </c>
+      <c r="C29">
+        <v>221</v>
+      </c>
+      <c r="D29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30">
+        <v>157</v>
+      </c>
+      <c r="C30">
+        <v>174</v>
+      </c>
+      <c r="D30">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31">
+        <v>140</v>
+      </c>
+      <c r="C31">
+        <v>144</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32">
+        <v>85</v>
+      </c>
+      <c r="C32">
+        <v>129</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33">
+        <v>47</v>
+      </c>
+      <c r="C33">
+        <v>109</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34">
+        <v>56</v>
+      </c>
+      <c r="C34">
+        <v>87</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35">
+        <v>41</v>
+      </c>
+      <c r="C35">
+        <v>64</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36">
+        <v>33</v>
+      </c>
+      <c r="C36">
+        <v>46</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37">
+        <v>19</v>
+      </c>
+      <c r="C37">
+        <v>48</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38">
+        <v>24</v>
+      </c>
+      <c r="C38">
+        <v>40</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39">
+        <v>9</v>
+      </c>
+      <c r="C39">
+        <v>39</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40">
+        <v>13</v>
+      </c>
+      <c r="C40">
+        <v>26</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>123</v>
+      </c>
+      <c r="B41">
+        <v>18</v>
+      </c>
+      <c r="C41">
+        <v>26</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>21</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>125</v>
+      </c>
+      <c r="B43">
+        <v>8</v>
+      </c>
+      <c r="C43">
+        <v>14</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>15</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45">
+        <v>6</v>
+      </c>
+      <c r="C45">
+        <v>19</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>128</v>
+      </c>
+      <c r="B46">
+        <v>6</v>
+      </c>
+      <c r="C46">
+        <v>15</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>129</v>
+      </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="C47">
+        <v>11</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>130</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>11</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>